--- a/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Enfermedad renal terminal.xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/average time/Enfermedad renal terminal.xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22.60413840310004</v>
+        <v>22.63168697499412</v>
       </c>
       <c r="B2" t="n">
-        <v>18.58536255258086</v>
+        <v>18.76749301780098</v>
       </c>
       <c r="C2" t="n">
-        <v>26.85382658721238</v>
+        <v>26.82010428337896</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>23.97260309540722</v>
+        <v>23.9291292432585</v>
       </c>
       <c r="B3" t="n">
-        <v>20.33512915470196</v>
+        <v>20.29274859721846</v>
       </c>
       <c r="C3" t="n">
-        <v>27.43770376176206</v>
+        <v>27.41812932442699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24.00609803533084</v>
+        <v>24.05824535099941</v>
       </c>
       <c r="B4" t="n">
-        <v>21.3369973464717</v>
+        <v>21.44331589271246</v>
       </c>
       <c r="C4" t="n">
-        <v>27.18464863525269</v>
+        <v>27.05438509023186</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>29.06753256954414</v>
+        <v>29.07014635957465</v>
       </c>
       <c r="B5" t="n">
-        <v>25.54505087476779</v>
+        <v>25.4740593381565</v>
       </c>
       <c r="C5" t="n">
-        <v>33.12409714546828</v>
+        <v>33.16134600433896</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29.88946054008861</v>
+        <v>29.87922956369371</v>
       </c>
       <c r="B6" t="n">
-        <v>27.08304097228671</v>
+        <v>27.00699985357457</v>
       </c>
       <c r="C6" t="n">
-        <v>32.66123541714514</v>
+        <v>32.76927469992776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>20.62647726039735</v>
+        <v>20.64756509430535</v>
       </c>
       <c r="B7" t="n">
-        <v>17.56411313724438</v>
+        <v>17.55217860838825</v>
       </c>
       <c r="C7" t="n">
-        <v>24.386447969139</v>
+        <v>24.27586267261828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.78304531738485</v>
+        <v>10.75844751802228</v>
       </c>
       <c r="B8" t="n">
-        <v>8.304535557127895</v>
+        <v>8.302945801369095</v>
       </c>
       <c r="C8" t="n">
-        <v>13.93255776218422</v>
+        <v>13.92987479262075</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>27.76824628107374</v>
+        <v>27.83321323252759</v>
       </c>
       <c r="B9" t="n">
-        <v>25.26257366295023</v>
+        <v>25.26047765574528</v>
       </c>
       <c r="C9" t="n">
-        <v>30.25539692123219</v>
+        <v>30.23759511701108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10.93593573916169</v>
+        <v>10.87703822765267</v>
       </c>
       <c r="B10" t="n">
-        <v>8.512292113610927</v>
+        <v>8.44906911318478</v>
       </c>
       <c r="C10" t="n">
-        <v>14.09847653028567</v>
+        <v>14.0337702350185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>18.53581321113359</v>
+        <v>18.67513664405169</v>
       </c>
       <c r="B11" t="n">
-        <v>14.88281061484332</v>
+        <v>14.85533363793444</v>
       </c>
       <c r="C11" t="n">
-        <v>22.72687791308978</v>
+        <v>22.76638835411477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>29.40608587991258</v>
+        <v>29.38820248727315</v>
       </c>
       <c r="B12" t="n">
-        <v>24.68507578935937</v>
+        <v>24.81155639585389</v>
       </c>
       <c r="C12" t="n">
-        <v>33.80038196101018</v>
+        <v>33.71311768442493</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.84814989358583</v>
+        <v>12.85019403546008</v>
       </c>
       <c r="B13" t="n">
-        <v>9.949072630636906</v>
+        <v>9.927210507023608</v>
       </c>
       <c r="C13" t="n">
-        <v>16.91982609120942</v>
+        <v>16.79280734028303</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15.1758715881065</v>
+        <v>15.20698784370924</v>
       </c>
       <c r="B14" t="n">
-        <v>11.88167045533006</v>
+        <v>11.8699624862558</v>
       </c>
       <c r="C14" t="n">
-        <v>19.41777598501777</v>
+        <v>19.36086861627459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>33.97181355382484</v>
+        <v>34.02952023242469</v>
       </c>
       <c r="B15" t="n">
-        <v>30.33928234046575</v>
+        <v>30.19900118338121</v>
       </c>
       <c r="C15" t="n">
-        <v>37.98068300152483</v>
+        <v>37.71982665077127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>29.88245966387995</v>
+        <v>29.91210730467125</v>
       </c>
       <c r="B16" t="n">
-        <v>27.11516371123702</v>
+        <v>27.00373809344991</v>
       </c>
       <c r="C16" t="n">
-        <v>32.66197112446865</v>
+        <v>32.81325350821284</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>29.24206910440948</v>
+        <v>29.25923641245671</v>
       </c>
       <c r="B17" t="n">
-        <v>24.56644803077217</v>
+        <v>24.7759776147792</v>
       </c>
       <c r="C17" t="n">
-        <v>33.5510531628212</v>
+        <v>33.64522838471533</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>24.08571952705999</v>
+        <v>24.08092913765668</v>
       </c>
       <c r="B18" t="n">
-        <v>21.03841094639333</v>
+        <v>21.17246752779685</v>
       </c>
       <c r="C18" t="n">
-        <v>27.44249868683376</v>
+        <v>27.27915226984385</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19.20233309484026</v>
+        <v>19.23717449044537</v>
       </c>
       <c r="B19" t="n">
-        <v>15.03419547900708</v>
+        <v>15.02546725528521</v>
       </c>
       <c r="C19" t="n">
-        <v>24.03542093072865</v>
+        <v>24.0324729664443</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>33.55385135580412</v>
+        <v>33.58282665725635</v>
       </c>
       <c r="B20" t="n">
-        <v>30.23654968169184</v>
+        <v>30.35645023648164</v>
       </c>
       <c r="C20" t="n">
-        <v>37.35800013278084</v>
+        <v>37.35221047801411</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>33.64891608990586</v>
+        <v>33.63411332327293</v>
       </c>
       <c r="B21" t="n">
-        <v>30.30905025584988</v>
+        <v>30.53194336042426</v>
       </c>
       <c r="C21" t="n">
-        <v>37.12428034206035</v>
+        <v>36.9885524846296</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11.19035892476191</v>
+        <v>11.17762605625933</v>
       </c>
       <c r="B22" t="n">
-        <v>8.599684022627962</v>
+        <v>8.552930182844548</v>
       </c>
       <c r="C22" t="n">
-        <v>14.78006793359363</v>
+        <v>14.84245644360468</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>36.35955657636393</v>
+        <v>36.41951290086661</v>
       </c>
       <c r="B23" t="n">
-        <v>31.97985817754688</v>
+        <v>31.91708899405405</v>
       </c>
       <c r="C23" t="n">
-        <v>40.73055067215632</v>
+        <v>40.6865490696918</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>29.88245966387995</v>
+        <v>29.91210730467125</v>
       </c>
       <c r="B24" t="n">
-        <v>27.12313858708957</v>
+        <v>27.00373809344991</v>
       </c>
       <c r="C24" t="n">
-        <v>32.70253358240291</v>
+        <v>32.81325350821284</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25.66412467166121</v>
+        <v>25.6467943267526</v>
       </c>
       <c r="B25" t="n">
-        <v>23.35421642196677</v>
+        <v>23.39700306552193</v>
       </c>
       <c r="C25" t="n">
-        <v>28.11352993202323</v>
+        <v>28.02226308304904</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>33.65061164312014</v>
+        <v>33.72926832786016</v>
       </c>
       <c r="B26" t="n">
-        <v>30.1491386982226</v>
+        <v>30.28277324877227</v>
       </c>
       <c r="C26" t="n">
-        <v>37.30676521319968</v>
+        <v>37.69655044683951</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13.03327127730043</v>
+        <v>12.99654016223697</v>
       </c>
       <c r="B27" t="n">
-        <v>10.01284346497313</v>
+        <v>10.06953269281656</v>
       </c>
       <c r="C27" t="n">
-        <v>17.03234288177143</v>
+        <v>16.94029208518673</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>21.89410165789095</v>
+        <v>21.87374011067277</v>
       </c>
       <c r="B28" t="n">
-        <v>18.36877342678331</v>
+        <v>18.33541881696286</v>
       </c>
       <c r="C28" t="n">
-        <v>25.4676529575844</v>
+        <v>25.44041734057405</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>38.55670552238076</v>
+        <v>38.68427897489019</v>
       </c>
       <c r="B29" t="n">
-        <v>34.11427367124968</v>
+        <v>34.22288902865593</v>
       </c>
       <c r="C29" t="n">
-        <v>43.50605746481382</v>
+        <v>43.67495022865955</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>27.9672992840196</v>
+        <v>27.97011253211019</v>
       </c>
       <c r="B30" t="n">
-        <v>24.36913194820428</v>
+        <v>24.33469417568543</v>
       </c>
       <c r="C30" t="n">
-        <v>31.9020666802975</v>
+        <v>31.90126978571163</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15.12890729742787</v>
+        <v>15.11295949299416</v>
       </c>
       <c r="B31" t="n">
-        <v>11.73995436978202</v>
+        <v>11.78271528915791</v>
       </c>
       <c r="C31" t="n">
-        <v>18.90503039238775</v>
+        <v>18.92372541955596</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.5249414275387</v>
+        <v>12.52084751499195</v>
       </c>
       <c r="B32" t="n">
-        <v>9.874011366662295</v>
+        <v>9.94172212282353</v>
       </c>
       <c r="C32" t="n">
-        <v>16.01002180076255</v>
+        <v>15.98907820951386</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>15.18003365058481</v>
+        <v>15.19582404933427</v>
       </c>
       <c r="B33" t="n">
-        <v>11.81337886750961</v>
+        <v>11.7969406100275</v>
       </c>
       <c r="C33" t="n">
-        <v>19.84903516372491</v>
+        <v>19.70321645529663</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>24.46854775262789</v>
+        <v>24.41274060533717</v>
       </c>
       <c r="B34" t="n">
-        <v>19.64091553632778</v>
+        <v>19.66814385510655</v>
       </c>
       <c r="C34" t="n">
-        <v>29.55245450320488</v>
+        <v>29.64879392129155</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>31.73984158669249</v>
+        <v>31.75495392168817</v>
       </c>
       <c r="B35" t="n">
-        <v>28.52002725836676</v>
+        <v>28.58804703320543</v>
       </c>
       <c r="C35" t="n">
-        <v>35.00352489386637</v>
+        <v>35.14843967722261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>20.68457740826662</v>
+        <v>20.68221701682943</v>
       </c>
       <c r="B36" t="n">
-        <v>17.76184796428158</v>
+        <v>17.74660429177204</v>
       </c>
       <c r="C36" t="n">
-        <v>24.38335217942</v>
+        <v>24.2623499044183</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35.97151345704923</v>
+        <v>35.84783873336134</v>
       </c>
       <c r="B37" t="n">
-        <v>32.28331281642979</v>
+        <v>32.24034679160788</v>
       </c>
       <c r="C37" t="n">
-        <v>39.68791434193704</v>
+        <v>39.79707091160779</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>15.46479000947791</v>
+        <v>15.38610751880198</v>
       </c>
       <c r="B38" t="n">
-        <v>12.00239316361353</v>
+        <v>11.86865253601307</v>
       </c>
       <c r="C38" t="n">
-        <v>19.70890195566979</v>
+        <v>19.72867468903289</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>30.03584401128363</v>
+        <v>29.95128764850944</v>
       </c>
       <c r="B39" t="n">
-        <v>25.30258111306632</v>
+        <v>25.24264140922784</v>
       </c>
       <c r="C39" t="n">
-        <v>34.96559397395367</v>
+        <v>34.99753573798459</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>29.00773901219522</v>
+        <v>28.9230656480156</v>
       </c>
       <c r="B40" t="n">
-        <v>25.88010819074034</v>
+        <v>25.91867359514685</v>
       </c>
       <c r="C40" t="n">
-        <v>31.97187837195305</v>
+        <v>31.94856937653019</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19.45959123747823</v>
+        <v>19.42960012366195</v>
       </c>
       <c r="B41" t="n">
-        <v>16.61162149609266</v>
+        <v>16.6252568303216</v>
       </c>
       <c r="C41" t="n">
-        <v>22.2811899343779</v>
+        <v>22.29588359257033</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>18.8844137010238</v>
+        <v>18.88954197034484</v>
       </c>
       <c r="B42" t="n">
-        <v>15.09437640690253</v>
+        <v>15.11506198793133</v>
       </c>
       <c r="C42" t="n">
-        <v>23.1485598358497</v>
+        <v>23.10173592932824</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>27.96419628279022</v>
+        <v>27.96892363483179</v>
       </c>
       <c r="B43" t="n">
-        <v>24.36913194820428</v>
+        <v>24.33138010007175</v>
       </c>
       <c r="C43" t="n">
-        <v>31.86373241237921</v>
+        <v>31.88639132550494</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>16.73853598011548</v>
+        <v>16.71932389291783</v>
       </c>
       <c r="B44" t="n">
-        <v>13.56154680186431</v>
+        <v>13.49960903421216</v>
       </c>
       <c r="C44" t="n">
-        <v>19.98600625520658</v>
+        <v>19.96915165063418</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>19.11381583774005</v>
+        <v>19.2720134975041</v>
       </c>
       <c r="B45" t="n">
-        <v>14.83811239705689</v>
+        <v>14.98444537320336</v>
       </c>
       <c r="C45" t="n">
-        <v>24.99830720332007</v>
+        <v>24.96814550047718</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14.64950451884935</v>
+        <v>14.64207264562138</v>
       </c>
       <c r="B46" t="n">
-        <v>11.59069736700912</v>
+        <v>11.57119326252334</v>
       </c>
       <c r="C46" t="n">
-        <v>18.36527887917094</v>
+        <v>18.32088945309552</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11.25859995005223</v>
+        <v>11.27704811928698</v>
       </c>
       <c r="B47" t="n">
-        <v>8.562962402080155</v>
+        <v>8.580010904353708</v>
       </c>
       <c r="C47" t="n">
-        <v>14.89880870791701</v>
+        <v>14.85744134629589</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>29.41841550404778</v>
+        <v>29.49057575149001</v>
       </c>
       <c r="B48" t="n">
-        <v>24.55436604267521</v>
+        <v>24.92816727440868</v>
       </c>
       <c r="C48" t="n">
-        <v>33.78975358169327</v>
+        <v>33.87207328312751</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>26.54854686869707</v>
+        <v>26.44490871440235</v>
       </c>
       <c r="B49" t="n">
-        <v>23.75997834490897</v>
+        <v>23.68144243272063</v>
       </c>
       <c r="C49" t="n">
-        <v>29.46938565252864</v>
+        <v>29.41225844459385</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>35.91027913265877</v>
+        <v>35.7517085984234</v>
       </c>
       <c r="B50" t="n">
-        <v>32.3529099193203</v>
+        <v>32.36629911369431</v>
       </c>
       <c r="C50" t="n">
-        <v>39.5664838575757</v>
+        <v>39.62250277001835</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>23.95414155920652</v>
+        <v>23.91066259617116</v>
       </c>
       <c r="B51" t="n">
-        <v>20.33512915470196</v>
+        <v>20.30485073151545</v>
       </c>
       <c r="C51" t="n">
-        <v>27.44042117815804</v>
+        <v>27.36937313437732</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>14.20278744067856</v>
+        <v>14.21377721366141</v>
       </c>
       <c r="B52" t="n">
-        <v>11.3567655370842</v>
+        <v>11.28959671924621</v>
       </c>
       <c r="C52" t="n">
-        <v>17.45819755588028</v>
+        <v>17.50566386619605</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>30.03770380962174</v>
+        <v>30.02268471943589</v>
       </c>
       <c r="B53" t="n">
-        <v>25.44362616838743</v>
+        <v>25.37093613750317</v>
       </c>
       <c r="C53" t="n">
-        <v>34.81543304608271</v>
+        <v>35.03450433886296</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>34.01637623222589</v>
+        <v>34.14038517828982</v>
       </c>
       <c r="B54" t="n">
-        <v>30.2104884965376</v>
+        <v>30.11508624487573</v>
       </c>
       <c r="C54" t="n">
-        <v>38.03643055716591</v>
+        <v>37.91970386435871</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>33.67226378688211</v>
+        <v>33.70310738658326</v>
       </c>
       <c r="B55" t="n">
-        <v>30.27294898202961</v>
+        <v>30.28181671661588</v>
       </c>
       <c r="C55" t="n">
-        <v>37.11589269159445</v>
+        <v>37.26954445688628</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15.05385062444697</v>
+        <v>15.05148320982531</v>
       </c>
       <c r="B56" t="n">
-        <v>11.79159789746807</v>
+        <v>11.84719468012237</v>
       </c>
       <c r="C56" t="n">
-        <v>19.23139657524712</v>
+        <v>19.22733715632063</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12.52696597433476</v>
+        <v>12.52084751499195</v>
       </c>
       <c r="B57" t="n">
-        <v>9.908887772676776</v>
+        <v>9.94172212282353</v>
       </c>
       <c r="C57" t="n">
-        <v>16.01559673730176</v>
+        <v>15.98907820951386</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>35.94550754424221</v>
+        <v>35.91748429223218</v>
       </c>
       <c r="B58" t="n">
-        <v>32.25446878699944</v>
+        <v>32.16607510048672</v>
       </c>
       <c r="C58" t="n">
-        <v>39.64845719242071</v>
+        <v>39.84666853477985</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>18.32334930892031</v>
+        <v>18.31593634397251</v>
       </c>
       <c r="B59" t="n">
-        <v>14.33828382534083</v>
+        <v>14.61846495679236</v>
       </c>
       <c r="C59" t="n">
-        <v>21.87661687123001</v>
+        <v>21.77064600421878</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>36.3901228271982</v>
+        <v>36.34774334342065</v>
       </c>
       <c r="B60" t="n">
-        <v>32.09595936994612</v>
+        <v>32.14025727686959</v>
       </c>
       <c r="C60" t="n">
-        <v>40.63140742700797</v>
+        <v>40.52303681007199</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15.35059922779539</v>
+        <v>15.37933180991141</v>
       </c>
       <c r="B61" t="n">
-        <v>11.9891491289617</v>
+        <v>12.09676549995798</v>
       </c>
       <c r="C61" t="n">
-        <v>19.8891653147005</v>
+        <v>19.67404631691175</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>18.53904062945396</v>
+        <v>18.67335442880588</v>
       </c>
       <c r="B62" t="n">
-        <v>14.86889868337291</v>
+        <v>14.85140486282836</v>
       </c>
       <c r="C62" t="n">
-        <v>22.73383824560402</v>
+        <v>22.76638171878558</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>15.38311820323512</v>
+        <v>15.35343728764527</v>
       </c>
       <c r="B63" t="n">
-        <v>11.98146090674801</v>
+        <v>11.91532797148991</v>
       </c>
       <c r="C63" t="n">
-        <v>20.40455397254019</v>
+        <v>20.46591280436887</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>36.40132969158519</v>
+        <v>36.35895020780764</v>
       </c>
       <c r="B64" t="n">
-        <v>32.09595936994612</v>
+        <v>32.1615501406841</v>
       </c>
       <c r="C64" t="n">
-        <v>40.66538928542345</v>
+        <v>40.53847083531604</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>12.3005907858018</v>
+        <v>12.29966986075552</v>
       </c>
       <c r="B65" t="n">
-        <v>9.615168930780255</v>
+        <v>9.61427016828025</v>
       </c>
       <c r="C65" t="n">
-        <v>15.24512746052817</v>
+        <v>15.2264181634325</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>24.08909065025809</v>
+        <v>24.13958327112559</v>
       </c>
       <c r="B66" t="n">
-        <v>19.57992173799665</v>
+        <v>19.59638404769202</v>
       </c>
       <c r="C66" t="n">
-        <v>29.07328441096864</v>
+        <v>28.99999639614118</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>23.25944122455825</v>
+        <v>23.28129738231659</v>
       </c>
       <c r="B67" t="n">
-        <v>18.98913147500478</v>
+        <v>18.84517638789344</v>
       </c>
       <c r="C67" t="n">
-        <v>28.07132938867785</v>
+        <v>28.19161947686301</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>31.20786341159052</v>
+        <v>31.13392740002993</v>
       </c>
       <c r="B68" t="n">
-        <v>28.06430628851468</v>
+        <v>27.89551958980033</v>
       </c>
       <c r="C68" t="n">
-        <v>34.57185694178246</v>
+        <v>34.32718624134862</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>11.16052300230961</v>
+        <v>11.20292840287522</v>
       </c>
       <c r="B69" t="n">
-        <v>8.599180656211967</v>
+        <v>8.596785885128613</v>
       </c>
       <c r="C69" t="n">
-        <v>14.94355838560615</v>
+        <v>14.84590070940418</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>29.02032508292437</v>
+        <v>28.91337402920517</v>
       </c>
       <c r="B70" t="n">
-        <v>25.86536590165825</v>
+        <v>25.98303500150408</v>
       </c>
       <c r="C70" t="n">
-        <v>32.0120723575717</v>
+        <v>31.99772596858741</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>21.92291777604008</v>
+        <v>21.88469388615509</v>
       </c>
       <c r="B71" t="n">
-        <v>19.61222129977832</v>
+        <v>19.61567080243458</v>
       </c>
       <c r="C71" t="n">
-        <v>24.32468600491408</v>
+        <v>24.28714492491569</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>25.26169521326387</v>
+        <v>25.23942435813418</v>
       </c>
       <c r="B72" t="n">
-        <v>22.19517825178883</v>
+        <v>22.14503976893067</v>
       </c>
       <c r="C72" t="n">
-        <v>28.47871951108852</v>
+        <v>28.24886759100151</v>
       </c>
     </row>
   </sheetData>
